--- a/medicine/Premiers secours et secourisme/Khéops_(chien)/Khéops_(chien).xlsx
+++ b/medicine/Premiers secours et secourisme/Khéops_(chien)/Khéops_(chien).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Kh%C3%A9ops_(chien)</t>
+          <t>Khéops_(chien)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Khéops, un berger allemand, était un célèbre chien sauveteur. Son maitre s'appelait Alain Mercier, et était pompier à Menton.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kh%C3%A9ops_(chien)</t>
+          <t>Khéops_(chien)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Khéops est sorti major du "stage national de chiens de recherche et de sauvetage en décombres" de Briançon.
 Par la suite, il intégra le corps de pompiers de Menton où il effectua de nombreuses missions : recherche de personnes disparues, détection d'explosifs...
